--- a/個人製作案.xlsx
+++ b/個人製作案.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2220012\Desktop\Graduation-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341CA775-E910-4407-BE51-27E73B91B2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2D6ED4-329F-4528-8150-BC86F951E076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4A9268D7-7E1A-426F-80F9-87112B1F9293}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4A9268D7-7E1A-426F-80F9-87112B1F9293}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="日程表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,9 +36,79 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>2220012</author>
+  </authors>
+  <commentList>
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{FBF50827-F58A-4004-8C48-4EDF2E0628ED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>2220012:
+就職作品のプレゼント</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>日曜日</t>
+    <rPh sb="0" eb="3">
+      <t>ニチヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月曜日</t>
+  </si>
+  <si>
+    <t>火曜日</t>
+  </si>
+  <si>
+    <t>水曜日</t>
+  </si>
+  <si>
+    <t>木曜日</t>
+  </si>
+  <si>
+    <t>金曜日</t>
+  </si>
+  <si>
+    <t>土曜日</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="d"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,21 +124,80 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -76,15 +206,35 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -95,6 +245,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$B$2" max="2026" min="2000" page="10" val="2024"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$D$2" max="12" min="1" page="10" val="10"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -614,6 +772,111 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>160020</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>518160</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>358140</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Spinner 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>190500</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>525780</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>358140</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2050" name="Spinner 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2050"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -938,16 +1201,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB153C18-3055-4A72-90BF-6C67F6D75063}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFFA9811-57B7-414C-8793-2F8016845C02}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B2:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1"/>
+  <cols>
+    <col min="2" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" ht="30" customHeight="1">
+      <c r="B2">
+        <v>2024</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="30" customHeight="1">
+      <c r="B3" t="str">
+        <f>B2&amp;"年"&amp;D2&amp;"月"</f>
+        <v>2024年10月</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="30" customHeight="1">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="30" customHeight="1">
+      <c r="B5" s="3">
+        <f>DATE(B2,D2,1)-WEEKDAY(DATE(B2,D2,1),2)</f>
+        <v>45564</v>
+      </c>
+      <c r="C5" s="3">
+        <f>B5+1</f>
+        <v>45565</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" ref="D5:H5" si="0">C5+1</f>
+        <v>45566</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>45567</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>45568</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="0"/>
+        <v>45569</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>45570</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="30" customHeight="1">
+      <c r="B6" s="3">
+        <f>B5+7</f>
+        <v>45571</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" ref="C6:H6" si="1">C5+7</f>
+        <v>45572</v>
+      </c>
+      <c r="D6" s="3">
+        <f>D5+7</f>
+        <v>45573</v>
+      </c>
+      <c r="E6" s="3">
+        <f>E5+7</f>
+        <v>45574</v>
+      </c>
+      <c r="F6" s="3">
+        <f>F5+7</f>
+        <v>45575</v>
+      </c>
+      <c r="G6" s="3">
+        <f>G5+7</f>
+        <v>45576</v>
+      </c>
+      <c r="H6" s="3">
+        <f>H5+7</f>
+        <v>45577</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="30" customHeight="1">
+      <c r="B7" s="3">
+        <f>B6+7</f>
+        <v>45578</v>
+      </c>
+      <c r="C7" s="3">
+        <f>C6+7</f>
+        <v>45579</v>
+      </c>
+      <c r="D7" s="3">
+        <f>D6+7</f>
+        <v>45580</v>
+      </c>
+      <c r="E7" s="3">
+        <f>E6+7</f>
+        <v>45581</v>
+      </c>
+      <c r="F7" s="3">
+        <f>F6+7</f>
+        <v>45582</v>
+      </c>
+      <c r="G7" s="3">
+        <f>G6+7</f>
+        <v>45583</v>
+      </c>
+      <c r="H7" s="3">
+        <f>H6+7</f>
+        <v>45584</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="30" customHeight="1">
+      <c r="B8" s="3">
+        <f>B7+7</f>
+        <v>45585</v>
+      </c>
+      <c r="C8" s="3">
+        <f>C7+7</f>
+        <v>45586</v>
+      </c>
+      <c r="D8" s="4">
+        <f>D7+7</f>
+        <v>45587</v>
+      </c>
+      <c r="E8" s="3">
+        <f>E7+7</f>
+        <v>45588</v>
+      </c>
+      <c r="F8" s="3">
+        <f>F7+7</f>
+        <v>45589</v>
+      </c>
+      <c r="G8" s="3">
+        <f>G7+7</f>
+        <v>45590</v>
+      </c>
+      <c r="H8" s="3">
+        <f>H7+7</f>
+        <v>45591</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="30" customHeight="1">
+      <c r="B9" s="3">
+        <f>B8+7</f>
+        <v>45592</v>
+      </c>
+      <c r="C9" s="3">
+        <f>C8+7</f>
+        <v>45593</v>
+      </c>
+      <c r="D9" s="3">
+        <f>D8+7</f>
+        <v>45594</v>
+      </c>
+      <c r="E9" s="3">
+        <f>E8+7</f>
+        <v>45595</v>
+      </c>
+      <c r="F9" s="3">
+        <f>F8+7</f>
+        <v>45596</v>
+      </c>
+      <c r="G9" s="3">
+        <f>G8+7</f>
+        <v>45597</v>
+      </c>
+      <c r="H9" s="3">
+        <f>H8+7</f>
+        <v>45598</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="30" customHeight="1">
+      <c r="B11" s="1">
+        <f>WEEKDAY(B5,2)</f>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="B5:H9">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MONTH(B5)=$D$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2049" r:id="rId3" name="Spinner 1">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>160020</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>518160</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>358140</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="2050" r:id="rId4" name="Spinner 2">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>190500</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>525780</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>358140</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
 </file>